--- a/andes/cases/ieee14/ieee14_wt3n.xlsx
+++ b/andes/cases/ieee14/ieee14_wt3n.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/wenqicui_uw_edu/Documents/Research/code/andes/andes/cases/ieee14/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_220A09C0A432C5707E42638250908158913F3709" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2668D6B2-46B8-46CB-9C3D-6B4F2F53B7A2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-20740" yWindow="-4019" windowWidth="20847" windowHeight="11208" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toggler" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
     <sheet name="WTPTA1" sheetId="15" r:id="rId15"/>
     <sheet name="WTTQA1" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -835,8 +841,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +905,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -945,7 +959,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,9 +991,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,6 +1043,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1186,17 +1236,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1242,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1262,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1279,9 +1329,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1435,7 +1485,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1512,7 +1562,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1589,7 +1639,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1666,7 +1716,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1749,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1757,9 +1807,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1929,7 +1979,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:56">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1964,7 +2014,7 @@
         <v>0.8</v>
       </c>
       <c r="M2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N2">
         <v>0.02</v>
@@ -2096,7 +2146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:56">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2131,7 +2181,7 @@
         <v>0.8</v>
       </c>
       <c r="M3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N3">
         <v>0.02</v>
@@ -2263,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:56">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2298,7 +2348,7 @@
         <v>0.8</v>
       </c>
       <c r="M4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N4">
         <v>0.02</v>
@@ -2430,7 +2480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:56">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2465,7 +2515,7 @@
         <v>0.8</v>
       </c>
       <c r="M5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N5">
         <v>0.02</v>
@@ -2597,7 +2647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:56">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2632,7 +2682,7 @@
         <v>0.8</v>
       </c>
       <c r="M6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N6">
         <v>0.02</v>
@@ -2770,7 +2820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,9 +2828,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2946,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3003,7 +3053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3110,7 +3160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3217,7 +3267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3324,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3437,17 +3487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3535,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3517,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3552,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3587,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3622,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3663,7 +3716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3671,9 +3724,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3696,7 +3749,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3719,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3742,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3765,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3788,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3817,7 +3870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,9 +3878,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3874,7 +3927,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3921,7 +3974,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3968,7 +4021,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4015,7 +4068,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4062,7 +4115,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4115,7 +4168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4123,9 +4176,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4187,7 +4240,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4228,7 +4281,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O2">
         <v>0.4</v>
@@ -4249,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4290,7 +4343,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O3">
         <v>0.4</v>
@@ -4311,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4352,7 +4405,7 @@
         <v>0.2</v>
       </c>
       <c r="N4">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O4">
         <v>0.4</v>
@@ -4373,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4414,7 +4467,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O5">
         <v>0.4</v>
@@ -4435,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4476,7 +4529,7 @@
         <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O6">
         <v>0.4</v>
@@ -4503,7 +4556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4511,9 +4564,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4557,7 +4610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4574,7 +4627,7 @@
         <v>69</v>
       </c>
       <c r="F2">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G2">
         <v>0.9</v>
@@ -4601,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4618,16 +4671,16 @@
         <v>69</v>
       </c>
       <c r="F3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G3">
         <v>0.9</v>
       </c>
       <c r="H3">
-        <v>1.0197</v>
+        <v>1.0197000000000001</v>
       </c>
       <c r="I3">
-        <v>-0.0279811185679731</v>
+        <v>-2.7981118567973098E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -4645,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4662,16 +4715,16 @@
         <v>69</v>
       </c>
       <c r="F4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G4">
         <v>0.9</v>
       </c>
       <c r="H4">
-        <v>1.00042</v>
+        <v>1.0004200000000001</v>
       </c>
       <c r="I4">
-        <v>-0.0600969221339207</v>
+        <v>-6.0096922133920698E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -4689,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4706,16 +4759,16 @@
         <v>69</v>
       </c>
       <c r="F5">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G5">
         <v>0.9</v>
       </c>
       <c r="H5">
-        <v>0.99858</v>
+        <v>0.99858000000000002</v>
       </c>
       <c r="I5">
-        <v>-0.0747210359363812</v>
+        <v>-7.47210359363812E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -4733,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4750,16 +4803,16 @@
         <v>69</v>
       </c>
       <c r="F6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G6">
         <v>0.9</v>
       </c>
       <c r="H6">
-        <v>1.00443</v>
+        <v>1.0044299999999999</v>
       </c>
       <c r="I6">
-        <v>-0.064315382935991</v>
+        <v>-6.4315382935990997E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4777,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4794,16 +4847,16 @@
         <v>138</v>
       </c>
       <c r="F7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G7">
         <v>0.9</v>
       </c>
       <c r="H7">
-        <v>0.99871</v>
+        <v>0.99870999999999999</v>
       </c>
       <c r="I7">
-        <v>-0.109997630777691</v>
+        <v>-0.10999763077769099</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4821,7 +4874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4838,7 +4891,7 @@
         <v>138</v>
       </c>
       <c r="F8">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G8">
         <v>0.9</v>
@@ -4847,7 +4900,7 @@
         <v>1.00682</v>
       </c>
       <c r="I8">
-        <v>-0.0842854402373102</v>
+        <v>-8.4285440237310202E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4865,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4882,7 +4935,7 @@
         <v>69</v>
       </c>
       <c r="F9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G9">
         <v>0.9</v>
@@ -4891,7 +4944,7 @@
         <v>1.01895</v>
       </c>
       <c r="I9">
-        <v>-0.0243386164190609</v>
+        <v>-2.4338616419060901E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4909,7 +4962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4926,7 +4979,7 @@
         <v>138</v>
       </c>
       <c r="F10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10">
         <v>0.9</v>
@@ -4935,7 +4988,7 @@
         <v>1.00193</v>
       </c>
       <c r="I10">
-        <v>-0.127501537845942</v>
+        <v>-0.12750153784594201</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4953,7 +5006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4970,7 +5023,7 @@
         <v>138</v>
       </c>
       <c r="F11">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G11">
         <v>0.9</v>
@@ -4979,7 +5032,7 @@
         <v>0.99351</v>
       </c>
       <c r="I11">
-        <v>-0.130201562198777</v>
+        <v>-0.13020156219877699</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4997,7 +5050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5014,13 +5067,13 @@
         <v>138</v>
       </c>
       <c r="F12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G12">
         <v>0.9</v>
       </c>
       <c r="H12">
-        <v>0.9924500000000001</v>
+        <v>0.99245000000000005</v>
       </c>
       <c r="I12">
         <v>-0.122947973827489</v>
@@ -5041,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5058,13 +5111,13 @@
         <v>138</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G13">
         <v>0.9</v>
       </c>
       <c r="H13">
-        <v>0.98639</v>
+        <v>0.98638999999999999</v>
       </c>
       <c r="I13">
         <v>-0.128934453161829</v>
@@ -5085,7 +5138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5102,16 +5155,16 @@
         <v>138</v>
       </c>
       <c r="F14">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14">
         <v>0.9</v>
       </c>
       <c r="H14">
-        <v>0.98403</v>
+        <v>0.98402999999999996</v>
       </c>
       <c r="I14">
-        <v>-0.133786468482373</v>
+        <v>-0.13378646848237299</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5129,7 +5182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5146,13 +5199,13 @@
         <v>138</v>
       </c>
       <c r="F15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
         <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.99063</v>
+        <v>0.99063000000000001</v>
       </c>
       <c r="I15">
         <v>-0.16691630834373</v>
@@ -5179,7 +5232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5187,9 +5240,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5224,7 +5277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5259,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5294,7 +5347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5314,7 +5367,7 @@
         <v>69</v>
       </c>
       <c r="G4">
-        <v>0.478</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -5329,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5349,10 +5402,10 @@
         <v>69</v>
       </c>
       <c r="G5">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H5">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I5">
         <v>1.2</v>
@@ -5364,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5387,7 +5440,7 @@
         <v>0.15</v>
       </c>
       <c r="H6">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I6">
         <v>1.2</v>
@@ -5399,7 +5452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5419,10 +5472,10 @@
         <v>138</v>
       </c>
       <c r="G7">
-        <v>0.295</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="H7">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="I7">
         <v>1.2</v>
@@ -5434,7 +5487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5457,7 +5510,7 @@
         <v>0.09</v>
       </c>
       <c r="H8">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I8">
         <v>1.2</v>
@@ -5469,7 +5522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5489,10 +5542,10 @@
         <v>138</v>
       </c>
       <c r="G9">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H9">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I9">
         <v>1.2</v>
@@ -5504,7 +5557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5524,10 +5577,10 @@
         <v>138</v>
       </c>
       <c r="G10">
-        <v>0.061</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I10">
         <v>1.2</v>
@@ -5539,7 +5592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5559,10 +5612,10 @@
         <v>138</v>
       </c>
       <c r="G11">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H11">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="I11">
         <v>1.2</v>
@@ -5574,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5597,7 +5650,7 @@
         <v>0.2</v>
       </c>
       <c r="H12">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I12">
         <v>1.2</v>
@@ -5615,7 +5668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5623,9 +5676,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5684,7 +5737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5740,7 +5793,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5796,7 +5849,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5852,7 +5905,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5914,7 +5967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5922,9 +5975,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -5986,7 +6039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6009,10 +6062,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.81442</v>
+        <v>0.81442000000000003</v>
       </c>
       <c r="J2">
-        <v>0.01962</v>
+        <v>1.9619999999999999E-2</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -6051,7 +6104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6059,9 +6112,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6093,7 +6146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6125,7 +6178,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6163,7 +6216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6171,9 +6224,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6247,7 +6300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6279,13 +6332,13 @@
         <v>69</v>
       </c>
       <c r="K2">
-        <v>0.01938</v>
+        <v>1.9380000000000001E-2</v>
       </c>
       <c r="L2">
-        <v>0.05917</v>
+        <v>5.917E-2</v>
       </c>
       <c r="M2">
-        <v>0.0528</v>
+        <v>5.28E-2</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -6312,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6344,13 +6397,13 @@
         <v>69</v>
       </c>
       <c r="K3">
-        <v>0.05403</v>
+        <v>5.4030000000000002E-2</v>
       </c>
       <c r="L3">
-        <v>0.22304</v>
+        <v>0.22303999999999999</v>
       </c>
       <c r="M3">
-        <v>0.0492</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -6377,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6409,13 +6462,13 @@
         <v>69</v>
       </c>
       <c r="K4">
-        <v>0.04699</v>
+        <v>4.6989999999999997E-2</v>
       </c>
       <c r="L4">
-        <v>0.19797</v>
+        <v>0.19797000000000001</v>
       </c>
       <c r="M4">
-        <v>0.0438</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6442,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6474,13 +6527,13 @@
         <v>69</v>
       </c>
       <c r="K5">
-        <v>0.05811</v>
+        <v>5.8110000000000002E-2</v>
       </c>
       <c r="L5">
         <v>0.17632</v>
       </c>
       <c r="M5">
-        <v>0.034</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6507,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6539,13 +6592,13 @@
         <v>69</v>
       </c>
       <c r="K6">
-        <v>0.05695</v>
+        <v>5.6950000000000001E-2</v>
       </c>
       <c r="L6">
-        <v>0.17388</v>
+        <v>0.17388000000000001</v>
       </c>
       <c r="M6">
-        <v>0.0346</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -6572,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6604,13 +6657,13 @@
         <v>69</v>
       </c>
       <c r="K7">
-        <v>0.06701</v>
+        <v>6.701E-2</v>
       </c>
       <c r="L7">
-        <v>0.17103</v>
+        <v>0.17102999999999999</v>
       </c>
       <c r="M7">
-        <v>0.0128</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -6637,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6669,10 +6722,10 @@
         <v>69</v>
       </c>
       <c r="K8">
-        <v>0.01335</v>
+        <v>1.3350000000000001E-2</v>
       </c>
       <c r="L8">
-        <v>0.04211</v>
+        <v>4.2110000000000002E-2</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -6702,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6734,10 +6787,10 @@
         <v>138</v>
       </c>
       <c r="K9">
-        <v>0.09497999999999999</v>
+        <v>9.4979999999999995E-2</v>
       </c>
       <c r="L9">
-        <v>0.1989</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -6767,7 +6820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6799,10 +6852,10 @@
         <v>138</v>
       </c>
       <c r="K10">
-        <v>0.12291</v>
+        <v>0.12291000000000001</v>
       </c>
       <c r="L10">
-        <v>0.25581</v>
+        <v>0.25580999999999998</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -6832,7 +6885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6864,7 +6917,7 @@
         <v>138</v>
       </c>
       <c r="K11">
-        <v>0.06615</v>
+        <v>6.615E-2</v>
       </c>
       <c r="L11">
         <v>0.13027</v>
@@ -6897,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6962,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6994,10 +7047,10 @@
         <v>138</v>
       </c>
       <c r="K13">
-        <v>0.03181</v>
+        <v>3.1809999999999998E-2</v>
       </c>
       <c r="L13">
-        <v>0.08450000000000001</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -7027,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7062,7 +7115,7 @@
         <v>0.12711</v>
       </c>
       <c r="L14">
-        <v>0.27038</v>
+        <v>0.27038000000000001</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -7092,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7124,10 +7177,10 @@
         <v>138</v>
       </c>
       <c r="K15">
-        <v>0.08205</v>
+        <v>8.2049999999999998E-2</v>
       </c>
       <c r="L15">
-        <v>0.19207</v>
+        <v>0.19206999999999999</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -7157,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7189,7 +7242,7 @@
         <v>138</v>
       </c>
       <c r="K16">
-        <v>0.22092</v>
+        <v>0.22092000000000001</v>
       </c>
       <c r="L16">
         <v>0.19988</v>
@@ -7222,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7287,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7346,13 +7399,13 @@
         <v>1</v>
       </c>
       <c r="T18">
-        <v>0.99677</v>
+        <v>0.99677000000000004</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7387,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.55618</v>
+        <v>0.55618000000000001</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -7411,13 +7464,13 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.99677</v>
+        <v>0.99677000000000004</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7452,7 +7505,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.25202</v>
+        <v>0.25202000000000002</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -7476,13 +7529,13 @@
         <v>1</v>
       </c>
       <c r="T20">
-        <v>0.99677</v>
+        <v>0.99677000000000004</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7541,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="T21">
-        <v>0.99677</v>
+        <v>0.99677000000000004</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -7553,7 +7606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7561,9 +7614,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7577,7 +7630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7591,7 +7644,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7611,7 +7664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7619,9 +7672,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -7647,7 +7700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7673,7 +7726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7699,7 +7752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7725,7 +7778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7751,7 +7804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
